--- a/result/NCDC_weather_data/stations_imputed/51156099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/51156099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0.020066</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01389401709401709</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0.020066</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01389401709401709</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0.020066</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01389401709401709</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0.020066</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.01389401709401709</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -813,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0.020066</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.01389401709401709</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -871,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0.020066</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.01389401709401709</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -929,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.01389401709401709</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
